--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{575B3004-2320-4A47-BFDB-CAB27B678816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{D93D7DF9-08F6-45ED-8498-BD962FA026E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +32,713 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所２</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>156-0042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120-0011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主婦</t>
+    <rPh sb="0" eb="2">
+      <t>シュフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333-0864</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>279-0012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108-0072</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>248-0024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>182-0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>601-8478</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>264-0028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>459-8004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>602-8345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>330-0042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>214-0014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>723-0047</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>558-0014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>243-0423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125-0062</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇プラザ205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイツ〇〇102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーポ〇〇103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ガーデン806</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="2">
+      <t>サイタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <rPh sb="0" eb="2">
+      <t>アイチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島県</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷区羽根木x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>セタガヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハネギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足立区中央本町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>アダチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チュウオウホンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口市柳根町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヤナネチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦安市入船x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>ウラヤス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イリフネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>港区白金台x-x-x</t>
+    <rPh sb="0" eb="1">
+      <t>ミナト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シロカネダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌倉市稲村ガ崎x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カマクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナムラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調布市仙川町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センガワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市南区東寺町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒガシテラマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉市若葉区桜木x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワカバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクラギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市緑区有松南x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アリマツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市上京区一番町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カミギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいたま市浦和区木崎x-x-x</t>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウラワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎市多摩区登戸x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノブト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三原市青葉台x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>ミハラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アオバダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪市住吉区我孫子x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミヨシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ワビコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海老名市今里x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>エビナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イマサト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛飾区青戸x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カツシカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　桃子</t>
+    <rPh sb="0" eb="2">
+      <t>たなか</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ももこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>伊勢　洋司</t>
+    <rPh sb="0" eb="2">
+      <t>いせ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ようじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小林　希美</t>
+    <rPh sb="0" eb="2">
+      <t>こばやし</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のぞみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>萩原　芳夫</t>
+    <rPh sb="0" eb="2">
+      <t>はぎわら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>よしお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>内田　恵子</t>
+    <rPh sb="0" eb="2">
+      <t>うちだ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けいこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>三上　信一</t>
+    <rPh sb="0" eb="2">
+      <t>みかみ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>しんいち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>北山　寛子</t>
+    <rPh sb="0" eb="2">
+      <t>きたやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>高木　和美</t>
+    <rPh sb="0" eb="2">
+      <t>たかぎ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かずみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中村　泰輔</t>
+    <rPh sb="0" eb="2">
+      <t>なかむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>たいすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>岡崎　大悟</t>
+    <rPh sb="0" eb="2">
+      <t>おかざき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>だいご</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山本　紀夫</t>
+    <rPh sb="0" eb="2">
+      <t>やまもと</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のりお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>斎藤　薫</t>
+    <rPh sb="0" eb="2">
+      <t>さいとう</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>かおる</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>前田　隆</t>
+    <rPh sb="0" eb="2">
+      <t>まえだ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>たかし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>樋村　礼子</t>
+    <rPh sb="0" eb="2">
+      <t>ひむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>れいこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>服部　健介</t>
+    <rPh sb="0" eb="2">
+      <t>はっとり</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けんすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水嶋　歩美</t>
+    <rPh sb="0" eb="2">
+      <t>みずしま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あゆみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中山　浩江</t>
+    <rPh sb="0" eb="2">
+      <t>なかやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろえ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,15 +778,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -93,6 +813,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="NO" dataDxfId="3"/>
+    <tableColumn id="2" name="氏名"/>
+    <tableColumn id="13" name="ふりがな" dataDxfId="2">
+      <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="性別" dataDxfId="1"/>
+    <tableColumn id="5" name="年齢" dataDxfId="0"/>
+    <tableColumn id="6" name="職業"/>
+    <tableColumn id="7" name="郵便番号"/>
+    <tableColumn id="9" name="都道府県"/>
+    <tableColumn id="12" name="住所１"/>
+    <tableColumn id="10" name="住所２"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,14 +1132,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92521A8-9D3A-4AAC-8AFB-D528B75A7CE2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たなか　ももこ</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>いせ　ようじ</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>こばやし　のぞみ</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はぎわら　よしお</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>うちだ　けいこ</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みかみ　しんいち</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>きたやま　ひろこ</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たかぎ　かずみ</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかむら　たいすけ</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>おかざき　だいご</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>やまもと　のりお</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>さいとう　かおる</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>まえだ　たかし</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>ひむら　れいこ</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はっとり　けんすけ</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みずしま　あゆみ</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかやま　ひろえ</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はぎわら　よしお</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 A2 E3 A4 G4"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -816,8 +816,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18"/>
   <tableColumns count="10">
     <tableColumn id="1" name="NO" dataDxfId="3"/>
     <tableColumn id="2" name="氏名"/>
@@ -1133,11 +1133,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1706,39 +1704,6 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="str">
-        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はぎわら　よしお</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
